--- a/excel/finished/7高炉/7高炉消耗月报.xlsx
+++ b/excel/finished/7高炉/7高炉消耗月报.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
     <sheet name="_ana_month_all" sheetId="7" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="6" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
     <sheet name="_tag_month_all" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>7高炉消耗月报表</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>全月</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>version</t>
@@ -191,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="25">
@@ -233,6 +236,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -242,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +274,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +320,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -280,35 +328,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -317,16 +342,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,29 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -370,6 +372,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -398,7 +401,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,19 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,49 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,25 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,49 +563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,11 +673,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,15 +699,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,17 +733,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,25 +770,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,10 +788,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,124 +800,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1392,7 +1395,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1538,10 +1541,10 @@
         <v>22</v>
       </c>
       <c r="M3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="O3" s="34"/>
       <c r="P3" s="23"/>
@@ -1689,15 +1692,15 @@
         <v/>
       </c>
       <c r="L5" s="27" t="str">
-        <f>IF(_tag_month_all!H2="","",_tag_month_all!H2/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
+        <f>IF(_tag_month_all!H2="","",_tag_month_all!H2*100/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
         <v/>
       </c>
       <c r="M5" s="27" t="str">
-        <f>IF(_tag_month_all!I2="","",_tag_month_all!I2/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
+        <f>IF(_tag_month_all!I2="","",_tag_month_all!I2*100/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
         <v/>
       </c>
       <c r="N5" s="27" t="str">
-        <f>IF(_tag_month_all!J2="","",_tag_month_all!J2/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
+        <f>IF(_tag_month_all!J2="","",_tag_month_all!J2*100/SUM(_tag_month_all!$H2,_tag_month_all!$I2,_tag_month_all!$J2))</f>
         <v/>
       </c>
       <c r="O5" s="35" t="str">
@@ -1709,11 +1712,11 @@
         <v/>
       </c>
       <c r="Q5" s="27" t="str">
-        <f>IF(_ana_month_all!B3="","",_ana_month_all!B3*100)</f>
+        <f t="shared" ref="Q5:Q35" si="0">IFERROR(SUM(L5+N5),"")</f>
         <v/>
       </c>
       <c r="R5" s="35" t="str">
-        <f t="shared" ref="R5:R35" si="0">IFERROR(SUM(I5,J5,K5)/G5,"")</f>
+        <f t="shared" ref="R5:R35" si="1">IFERROR(SUM(I5,J5,K5)/G5,"")</f>
         <v/>
       </c>
       <c r="S5" s="26" t="str">
@@ -1780,15 +1783,15 @@
         <v/>
       </c>
       <c r="L6" s="27" t="str">
-        <f>IF(_tag_month_all!H3="","",_tag_month_all!H3/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
+        <f>IF(_tag_month_all!H3="","",_tag_month_all!H3*100/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
         <v/>
       </c>
       <c r="M6" s="27" t="str">
-        <f>IF(_tag_month_all!I3="","",_tag_month_all!I3/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
+        <f>IF(_tag_month_all!I3="","",_tag_month_all!I3*100/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
         <v/>
       </c>
       <c r="N6" s="27" t="str">
-        <f>IF(_tag_month_all!J3="","",_tag_month_all!J3/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
+        <f>IF(_tag_month_all!J3="","",_tag_month_all!J3*100/SUM(_tag_month_all!$H3,_tag_month_all!$I3,_tag_month_all!$J3))</f>
         <v/>
       </c>
       <c r="O6" s="35" t="str">
@@ -1800,11 +1803,11 @@
         <v/>
       </c>
       <c r="Q6" s="27" t="str">
-        <f>IF(_ana_month_all!B4="","",_ana_month_all!B4*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R6" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S6" s="26" t="str">
@@ -1871,15 +1874,15 @@
         <v/>
       </c>
       <c r="L7" s="27" t="str">
-        <f>IF(_tag_month_all!H4="","",_tag_month_all!H4/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
+        <f>IF(_tag_month_all!H4="","",_tag_month_all!H4*100/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
         <v/>
       </c>
       <c r="M7" s="27" t="str">
-        <f>IF(_tag_month_all!I4="","",_tag_month_all!I4/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
+        <f>IF(_tag_month_all!I4="","",_tag_month_all!I4*100/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
         <v/>
       </c>
       <c r="N7" s="27" t="str">
-        <f>IF(_tag_month_all!J4="","",_tag_month_all!J4/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
+        <f>IF(_tag_month_all!J4="","",_tag_month_all!J4*100/SUM(_tag_month_all!$H4,_tag_month_all!$I4,_tag_month_all!$J4))</f>
         <v/>
       </c>
       <c r="O7" s="35" t="str">
@@ -1891,11 +1894,11 @@
         <v/>
       </c>
       <c r="Q7" s="27" t="str">
-        <f>IF(_ana_month_all!B5="","",_ana_month_all!B5*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R7" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S7" s="26" t="str">
@@ -1962,15 +1965,15 @@
         <v/>
       </c>
       <c r="L8" s="27" t="str">
-        <f>IF(_tag_month_all!H5="","",_tag_month_all!H5/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
+        <f>IF(_tag_month_all!H5="","",_tag_month_all!H5*100/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
         <v/>
       </c>
       <c r="M8" s="27" t="str">
-        <f>IF(_tag_month_all!I5="","",_tag_month_all!I5/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
+        <f>IF(_tag_month_all!I5="","",_tag_month_all!I5*100/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
         <v/>
       </c>
       <c r="N8" s="27" t="str">
-        <f>IF(_tag_month_all!J5="","",_tag_month_all!J5/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
+        <f>IF(_tag_month_all!J5="","",_tag_month_all!J5*100/SUM(_tag_month_all!$H5,_tag_month_all!$I5,_tag_month_all!$J5))</f>
         <v/>
       </c>
       <c r="O8" s="35" t="str">
@@ -1982,11 +1985,11 @@
         <v/>
       </c>
       <c r="Q8" s="27" t="str">
-        <f>IF(_ana_month_all!B6="","",_ana_month_all!B6*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R8" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S8" s="26" t="str">
@@ -2053,15 +2056,15 @@
         <v/>
       </c>
       <c r="L9" s="27" t="str">
-        <f>IF(_tag_month_all!H6="","",_tag_month_all!H6/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
+        <f>IF(_tag_month_all!H6="","",_tag_month_all!H6*100/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
         <v/>
       </c>
       <c r="M9" s="27" t="str">
-        <f>IF(_tag_month_all!I6="","",_tag_month_all!I6/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
+        <f>IF(_tag_month_all!I6="","",_tag_month_all!I6*100/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
         <v/>
       </c>
       <c r="N9" s="27" t="str">
-        <f>IF(_tag_month_all!J6="","",_tag_month_all!J6/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
+        <f>IF(_tag_month_all!J6="","",_tag_month_all!J6*100/SUM(_tag_month_all!$H6,_tag_month_all!$I6,_tag_month_all!$J6))</f>
         <v/>
       </c>
       <c r="O9" s="35" t="str">
@@ -2073,11 +2076,11 @@
         <v/>
       </c>
       <c r="Q9" s="27" t="str">
-        <f>IF(_ana_month_all!B7="","",_ana_month_all!B7*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R9" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="26" t="str">
@@ -2144,15 +2147,15 @@
         <v/>
       </c>
       <c r="L10" s="27" t="str">
-        <f>IF(_tag_month_all!H7="","",_tag_month_all!H7/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
+        <f>IF(_tag_month_all!H7="","",_tag_month_all!H7*100/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
         <v/>
       </c>
       <c r="M10" s="27" t="str">
-        <f>IF(_tag_month_all!I7="","",_tag_month_all!I7/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
+        <f>IF(_tag_month_all!I7="","",_tag_month_all!I7*100/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
         <v/>
       </c>
       <c r="N10" s="27" t="str">
-        <f>IF(_tag_month_all!J7="","",_tag_month_all!J7/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
+        <f>IF(_tag_month_all!J7="","",_tag_month_all!J7*100/SUM(_tag_month_all!$H7,_tag_month_all!$I7,_tag_month_all!$J7))</f>
         <v/>
       </c>
       <c r="O10" s="35" t="str">
@@ -2164,11 +2167,11 @@
         <v/>
       </c>
       <c r="Q10" s="27" t="str">
-        <f>IF(_ana_month_all!B8="","",_ana_month_all!B8*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R10" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="26" t="str">
@@ -2235,15 +2238,15 @@
         <v/>
       </c>
       <c r="L11" s="27" t="str">
-        <f>IF(_tag_month_all!H8="","",_tag_month_all!H8/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
+        <f>IF(_tag_month_all!H8="","",_tag_month_all!H8*100/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
         <v/>
       </c>
       <c r="M11" s="27" t="str">
-        <f>IF(_tag_month_all!I8="","",_tag_month_all!I8/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
+        <f>IF(_tag_month_all!I8="","",_tag_month_all!I8*100/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
         <v/>
       </c>
       <c r="N11" s="27" t="str">
-        <f>IF(_tag_month_all!J8="","",_tag_month_all!J8/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
+        <f>IF(_tag_month_all!J8="","",_tag_month_all!J8*100/SUM(_tag_month_all!$H8,_tag_month_all!$I8,_tag_month_all!$J8))</f>
         <v/>
       </c>
       <c r="O11" s="35" t="str">
@@ -2255,11 +2258,11 @@
         <v/>
       </c>
       <c r="Q11" s="27" t="str">
-        <f>IF(_ana_month_all!B9="","",_ana_month_all!B9*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R11" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="26" t="str">
@@ -2326,15 +2329,15 @@
         <v/>
       </c>
       <c r="L12" s="27" t="str">
-        <f>IF(_tag_month_all!H9="","",_tag_month_all!H9/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
+        <f>IF(_tag_month_all!H9="","",_tag_month_all!H9*100/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
         <v/>
       </c>
       <c r="M12" s="27" t="str">
-        <f>IF(_tag_month_all!I9="","",_tag_month_all!I9/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
+        <f>IF(_tag_month_all!I9="","",_tag_month_all!I9*100/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
         <v/>
       </c>
       <c r="N12" s="27" t="str">
-        <f>IF(_tag_month_all!J9="","",_tag_month_all!J9/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
+        <f>IF(_tag_month_all!J9="","",_tag_month_all!J9*100/SUM(_tag_month_all!$H9,_tag_month_all!$I9,_tag_month_all!$J9))</f>
         <v/>
       </c>
       <c r="O12" s="35" t="str">
@@ -2346,11 +2349,11 @@
         <v/>
       </c>
       <c r="Q12" s="27" t="str">
-        <f>IF(_ana_month_all!B10="","",_ana_month_all!B10*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R12" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S12" s="26" t="str">
@@ -2417,15 +2420,15 @@
         <v/>
       </c>
       <c r="L13" s="27" t="str">
-        <f>IF(_tag_month_all!H10="","",_tag_month_all!H10/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
+        <f>IF(_tag_month_all!H10="","",_tag_month_all!H10*100/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
         <v/>
       </c>
       <c r="M13" s="27" t="str">
-        <f>IF(_tag_month_all!I10="","",_tag_month_all!I10/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
+        <f>IF(_tag_month_all!I10="","",_tag_month_all!I10*100/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
         <v/>
       </c>
       <c r="N13" s="27" t="str">
-        <f>IF(_tag_month_all!J10="","",_tag_month_all!J10/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
+        <f>IF(_tag_month_all!J10="","",_tag_month_all!J10*100/SUM(_tag_month_all!$H10,_tag_month_all!$I10,_tag_month_all!$J10))</f>
         <v/>
       </c>
       <c r="O13" s="35" t="str">
@@ -2437,11 +2440,11 @@
         <v/>
       </c>
       <c r="Q13" s="27" t="str">
-        <f>IF(_ana_month_all!B11="","",_ana_month_all!B11*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R13" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S13" s="26" t="str">
@@ -2508,15 +2511,15 @@
         <v/>
       </c>
       <c r="L14" s="27" t="str">
-        <f>IF(_tag_month_all!H11="","",_tag_month_all!H11/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
+        <f>IF(_tag_month_all!H11="","",_tag_month_all!H11*100/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
         <v/>
       </c>
       <c r="M14" s="27" t="str">
-        <f>IF(_tag_month_all!I11="","",_tag_month_all!I11/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
+        <f>IF(_tag_month_all!I11="","",_tag_month_all!I11*100/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
         <v/>
       </c>
       <c r="N14" s="27" t="str">
-        <f>IF(_tag_month_all!J11="","",_tag_month_all!J11/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
+        <f>IF(_tag_month_all!J11="","",_tag_month_all!J11*100/SUM(_tag_month_all!$H11,_tag_month_all!$I11,_tag_month_all!$J11))</f>
         <v/>
       </c>
       <c r="O14" s="35" t="str">
@@ -2528,11 +2531,11 @@
         <v/>
       </c>
       <c r="Q14" s="27" t="str">
-        <f>IF(_ana_month_all!B12="","",_ana_month_all!B12*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R14" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S14" s="26" t="str">
@@ -2599,15 +2602,15 @@
         <v/>
       </c>
       <c r="L15" s="27" t="str">
-        <f>IF(_tag_month_all!H12="","",_tag_month_all!H12/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
+        <f>IF(_tag_month_all!H12="","",_tag_month_all!H12*100/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
         <v/>
       </c>
       <c r="M15" s="27" t="str">
-        <f>IF(_tag_month_all!I12="","",_tag_month_all!I12/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
+        <f>IF(_tag_month_all!I12="","",_tag_month_all!I12*100/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
         <v/>
       </c>
       <c r="N15" s="27" t="str">
-        <f>IF(_tag_month_all!J12="","",_tag_month_all!J12/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
+        <f>IF(_tag_month_all!J12="","",_tag_month_all!J12*100/SUM(_tag_month_all!$H12,_tag_month_all!$I12,_tag_month_all!$J12))</f>
         <v/>
       </c>
       <c r="O15" s="35" t="str">
@@ -2619,11 +2622,11 @@
         <v/>
       </c>
       <c r="Q15" s="27" t="str">
-        <f>IF(_ana_month_all!B13="","",_ana_month_all!B13*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R15" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="26" t="str">
@@ -2690,15 +2693,15 @@
         <v/>
       </c>
       <c r="L16" s="27" t="str">
-        <f>IF(_tag_month_all!H13="","",_tag_month_all!H13/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
+        <f>IF(_tag_month_all!H13="","",_tag_month_all!H13*100/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
         <v/>
       </c>
       <c r="M16" s="27" t="str">
-        <f>IF(_tag_month_all!I13="","",_tag_month_all!I13/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
+        <f>IF(_tag_month_all!I13="","",_tag_month_all!I13*100/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
         <v/>
       </c>
       <c r="N16" s="27" t="str">
-        <f>IF(_tag_month_all!J13="","",_tag_month_all!J13/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
+        <f>IF(_tag_month_all!J13="","",_tag_month_all!J13*100/SUM(_tag_month_all!$H13,_tag_month_all!$I13,_tag_month_all!$J13))</f>
         <v/>
       </c>
       <c r="O16" s="35" t="str">
@@ -2710,11 +2713,11 @@
         <v/>
       </c>
       <c r="Q16" s="27" t="str">
-        <f>IF(_ana_month_all!B14="","",_ana_month_all!B14*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R16" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S16" s="26" t="str">
@@ -2781,15 +2784,15 @@
         <v/>
       </c>
       <c r="L17" s="27" t="str">
-        <f>IF(_tag_month_all!H14="","",_tag_month_all!H14/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
+        <f>IF(_tag_month_all!H14="","",_tag_month_all!H14*100/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
         <v/>
       </c>
       <c r="M17" s="27" t="str">
-        <f>IF(_tag_month_all!I14="","",_tag_month_all!I14/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
+        <f>IF(_tag_month_all!I14="","",_tag_month_all!I14*100/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
         <v/>
       </c>
       <c r="N17" s="27" t="str">
-        <f>IF(_tag_month_all!J14="","",_tag_month_all!J14/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
+        <f>IF(_tag_month_all!J14="","",_tag_month_all!J14*100/SUM(_tag_month_all!$H14,_tag_month_all!$I14,_tag_month_all!$J14))</f>
         <v/>
       </c>
       <c r="O17" s="35" t="str">
@@ -2801,11 +2804,11 @@
         <v/>
       </c>
       <c r="Q17" s="27" t="str">
-        <f>IF(_ana_month_all!B15="","",_ana_month_all!B15*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R17" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S17" s="26" t="str">
@@ -2872,15 +2875,15 @@
         <v/>
       </c>
       <c r="L18" s="27" t="str">
-        <f>IF(_tag_month_all!H15="","",_tag_month_all!H15/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
+        <f>IF(_tag_month_all!H15="","",_tag_month_all!H15*100/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
         <v/>
       </c>
       <c r="M18" s="27" t="str">
-        <f>IF(_tag_month_all!I15="","",_tag_month_all!I15/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
+        <f>IF(_tag_month_all!I15="","",_tag_month_all!I15*100/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
         <v/>
       </c>
       <c r="N18" s="27" t="str">
-        <f>IF(_tag_month_all!J15="","",_tag_month_all!J15/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
+        <f>IF(_tag_month_all!J15="","",_tag_month_all!J15*100/SUM(_tag_month_all!$H15,_tag_month_all!$I15,_tag_month_all!$J15))</f>
         <v/>
       </c>
       <c r="O18" s="35" t="str">
@@ -2892,11 +2895,11 @@
         <v/>
       </c>
       <c r="Q18" s="27" t="str">
-        <f>IF(_ana_month_all!B16="","",_ana_month_all!B16*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R18" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S18" s="26" t="str">
@@ -2963,15 +2966,15 @@
         <v/>
       </c>
       <c r="L19" s="27" t="str">
-        <f>IF(_tag_month_all!H16="","",_tag_month_all!H16/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
+        <f>IF(_tag_month_all!H16="","",_tag_month_all!H16*100/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
         <v/>
       </c>
       <c r="M19" s="27" t="str">
-        <f>IF(_tag_month_all!I16="","",_tag_month_all!I16/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
+        <f>IF(_tag_month_all!I16="","",_tag_month_all!I16*100/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
         <v/>
       </c>
       <c r="N19" s="27" t="str">
-        <f>IF(_tag_month_all!J16="","",_tag_month_all!J16/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
+        <f>IF(_tag_month_all!J16="","",_tag_month_all!J16*100/SUM(_tag_month_all!$H16,_tag_month_all!$I16,_tag_month_all!$J16))</f>
         <v/>
       </c>
       <c r="O19" s="35" t="str">
@@ -2983,11 +2986,11 @@
         <v/>
       </c>
       <c r="Q19" s="27" t="str">
-        <f>IF(_ana_month_all!B17="","",_ana_month_all!B17*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R19" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S19" s="26" t="str">
@@ -3054,15 +3057,15 @@
         <v/>
       </c>
       <c r="L20" s="27" t="str">
-        <f>IF(_tag_month_all!H17="","",_tag_month_all!H17/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
+        <f>IF(_tag_month_all!H17="","",_tag_month_all!H17*100/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
         <v/>
       </c>
       <c r="M20" s="27" t="str">
-        <f>IF(_tag_month_all!I17="","",_tag_month_all!I17/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
+        <f>IF(_tag_month_all!I17="","",_tag_month_all!I17*100/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
         <v/>
       </c>
       <c r="N20" s="27" t="str">
-        <f>IF(_tag_month_all!J17="","",_tag_month_all!J17/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
+        <f>IF(_tag_month_all!J17="","",_tag_month_all!J17*100/SUM(_tag_month_all!$H17,_tag_month_all!$I17,_tag_month_all!$J17))</f>
         <v/>
       </c>
       <c r="O20" s="35" t="str">
@@ -3074,11 +3077,11 @@
         <v/>
       </c>
       <c r="Q20" s="27" t="str">
-        <f>IF(_ana_month_all!B18="","",_ana_month_all!B18*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R20" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S20" s="26" t="str">
@@ -3145,15 +3148,15 @@
         <v/>
       </c>
       <c r="L21" s="27" t="str">
-        <f>IF(_tag_month_all!H18="","",_tag_month_all!H18/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
+        <f>IF(_tag_month_all!H18="","",_tag_month_all!H18*100/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
         <v/>
       </c>
       <c r="M21" s="27" t="str">
-        <f>IF(_tag_month_all!I18="","",_tag_month_all!I18/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
+        <f>IF(_tag_month_all!I18="","",_tag_month_all!I18*100/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
         <v/>
       </c>
       <c r="N21" s="27" t="str">
-        <f>IF(_tag_month_all!J18="","",_tag_month_all!J18/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
+        <f>IF(_tag_month_all!J18="","",_tag_month_all!J18*100/SUM(_tag_month_all!$H18,_tag_month_all!$I18,_tag_month_all!$J18))</f>
         <v/>
       </c>
       <c r="O21" s="35" t="str">
@@ -3165,11 +3168,11 @@
         <v/>
       </c>
       <c r="Q21" s="27" t="str">
-        <f>IF(_ana_month_all!B19="","",_ana_month_all!B19*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R21" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S21" s="26" t="str">
@@ -3236,15 +3239,15 @@
         <v/>
       </c>
       <c r="L22" s="27" t="str">
-        <f>IF(_tag_month_all!H19="","",_tag_month_all!H19/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
+        <f>IF(_tag_month_all!H19="","",_tag_month_all!H19*100/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
         <v/>
       </c>
       <c r="M22" s="27" t="str">
-        <f>IF(_tag_month_all!I19="","",_tag_month_all!I19/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
+        <f>IF(_tag_month_all!I19="","",_tag_month_all!I19*100/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
         <v/>
       </c>
       <c r="N22" s="27" t="str">
-        <f>IF(_tag_month_all!J19="","",_tag_month_all!J19/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
+        <f>IF(_tag_month_all!J19="","",_tag_month_all!J19*100/SUM(_tag_month_all!$H19,_tag_month_all!$I19,_tag_month_all!$J19))</f>
         <v/>
       </c>
       <c r="O22" s="35" t="str">
@@ -3256,11 +3259,11 @@
         <v/>
       </c>
       <c r="Q22" s="27" t="str">
-        <f>IF(_ana_month_all!B20="","",_ana_month_all!B20*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R22" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S22" s="26" t="str">
@@ -3327,15 +3330,15 @@
         <v/>
       </c>
       <c r="L23" s="27" t="str">
-        <f>IF(_tag_month_all!H20="","",_tag_month_all!H20/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
+        <f>IF(_tag_month_all!H20="","",_tag_month_all!H20*100/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
         <v/>
       </c>
       <c r="M23" s="27" t="str">
-        <f>IF(_tag_month_all!I20="","",_tag_month_all!I20/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
+        <f>IF(_tag_month_all!I20="","",_tag_month_all!I20*100/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
         <v/>
       </c>
       <c r="N23" s="27" t="str">
-        <f>IF(_tag_month_all!J20="","",_tag_month_all!J20/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
+        <f>IF(_tag_month_all!J20="","",_tag_month_all!J20*100/SUM(_tag_month_all!$H20,_tag_month_all!$I20,_tag_month_all!$J20))</f>
         <v/>
       </c>
       <c r="O23" s="35" t="str">
@@ -3347,11 +3350,11 @@
         <v/>
       </c>
       <c r="Q23" s="27" t="str">
-        <f>IF(_ana_month_all!B21="","",_ana_month_all!B21*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R23" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S23" s="26" t="str">
@@ -3418,15 +3421,15 @@
         <v/>
       </c>
       <c r="L24" s="27" t="str">
-        <f>IF(_tag_month_all!H21="","",_tag_month_all!H21/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
+        <f>IF(_tag_month_all!H21="","",_tag_month_all!H21*100/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
         <v/>
       </c>
       <c r="M24" s="27" t="str">
-        <f>IF(_tag_month_all!I21="","",_tag_month_all!I21/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
+        <f>IF(_tag_month_all!I21="","",_tag_month_all!I21*100/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
         <v/>
       </c>
       <c r="N24" s="27" t="str">
-        <f>IF(_tag_month_all!J21="","",_tag_month_all!J21/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
+        <f>IF(_tag_month_all!J21="","",_tag_month_all!J21*100/SUM(_tag_month_all!$H21,_tag_month_all!$I21,_tag_month_all!$J21))</f>
         <v/>
       </c>
       <c r="O24" s="35" t="str">
@@ -3438,11 +3441,11 @@
         <v/>
       </c>
       <c r="Q24" s="27" t="str">
-        <f>IF(_ana_month_all!B22="","",_ana_month_all!B22*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R24" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S24" s="26" t="str">
@@ -3509,15 +3512,15 @@
         <v/>
       </c>
       <c r="L25" s="27" t="str">
-        <f>IF(_tag_month_all!H22="","",_tag_month_all!H22/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
+        <f>IF(_tag_month_all!H22="","",_tag_month_all!H22*100/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
         <v/>
       </c>
       <c r="M25" s="27" t="str">
-        <f>IF(_tag_month_all!I22="","",_tag_month_all!I22/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
+        <f>IF(_tag_month_all!I22="","",_tag_month_all!I22*100/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
         <v/>
       </c>
       <c r="N25" s="27" t="str">
-        <f>IF(_tag_month_all!J22="","",_tag_month_all!J22/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
+        <f>IF(_tag_month_all!J22="","",_tag_month_all!J22*100/SUM(_tag_month_all!$H22,_tag_month_all!$I22,_tag_month_all!$J22))</f>
         <v/>
       </c>
       <c r="O25" s="35" t="str">
@@ -3529,11 +3532,11 @@
         <v/>
       </c>
       <c r="Q25" s="27" t="str">
-        <f>IF(_ana_month_all!B23="","",_ana_month_all!B23*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R25" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S25" s="26" t="str">
@@ -3600,15 +3603,15 @@
         <v/>
       </c>
       <c r="L26" s="27" t="str">
-        <f>IF(_tag_month_all!H23="","",_tag_month_all!H23/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
+        <f>IF(_tag_month_all!H23="","",_tag_month_all!H23*100/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
         <v/>
       </c>
       <c r="M26" s="27" t="str">
-        <f>IF(_tag_month_all!I23="","",_tag_month_all!I23/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
+        <f>IF(_tag_month_all!I23="","",_tag_month_all!I23*100/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
         <v/>
       </c>
       <c r="N26" s="27" t="str">
-        <f>IF(_tag_month_all!J23="","",_tag_month_all!J23/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
+        <f>IF(_tag_month_all!J23="","",_tag_month_all!J23*100/SUM(_tag_month_all!$H23,_tag_month_all!$I23,_tag_month_all!$J23))</f>
         <v/>
       </c>
       <c r="O26" s="35" t="str">
@@ -3620,11 +3623,11 @@
         <v/>
       </c>
       <c r="Q26" s="27" t="str">
-        <f>IF(_ana_month_all!B24="","",_ana_month_all!B24*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R26" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S26" s="26" t="str">
@@ -3691,15 +3694,15 @@
         <v/>
       </c>
       <c r="L27" s="27" t="str">
-        <f>IF(_tag_month_all!H24="","",_tag_month_all!H24/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
+        <f>IF(_tag_month_all!H24="","",_tag_month_all!H24*100/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
         <v/>
       </c>
       <c r="M27" s="27" t="str">
-        <f>IF(_tag_month_all!I24="","",_tag_month_all!I24/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
+        <f>IF(_tag_month_all!I24="","",_tag_month_all!I24*100/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
         <v/>
       </c>
       <c r="N27" s="27" t="str">
-        <f>IF(_tag_month_all!J24="","",_tag_month_all!J24/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
+        <f>IF(_tag_month_all!J24="","",_tag_month_all!J24*100/SUM(_tag_month_all!$H24,_tag_month_all!$I24,_tag_month_all!$J24))</f>
         <v/>
       </c>
       <c r="O27" s="35" t="str">
@@ -3711,11 +3714,11 @@
         <v/>
       </c>
       <c r="Q27" s="27" t="str">
-        <f>IF(_ana_month_all!B25="","",_ana_month_all!B25*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R27" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S27" s="26" t="str">
@@ -3782,15 +3785,15 @@
         <v/>
       </c>
       <c r="L28" s="27" t="str">
-        <f>IF(_tag_month_all!H25="","",_tag_month_all!H25/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
+        <f>IF(_tag_month_all!H25="","",_tag_month_all!H25*100/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
         <v/>
       </c>
       <c r="M28" s="27" t="str">
-        <f>IF(_tag_month_all!I25="","",_tag_month_all!I25/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
+        <f>IF(_tag_month_all!I25="","",_tag_month_all!I25*100/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
         <v/>
       </c>
       <c r="N28" s="27" t="str">
-        <f>IF(_tag_month_all!J25="","",_tag_month_all!J25/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
+        <f>IF(_tag_month_all!J25="","",_tag_month_all!J25*100/SUM(_tag_month_all!$H25,_tag_month_all!$I25,_tag_month_all!$J25))</f>
         <v/>
       </c>
       <c r="O28" s="35" t="str">
@@ -3802,11 +3805,11 @@
         <v/>
       </c>
       <c r="Q28" s="27" t="str">
-        <f>IF(_ana_month_all!B26="","",_ana_month_all!B26*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R28" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S28" s="26" t="str">
@@ -3873,15 +3876,15 @@
         <v/>
       </c>
       <c r="L29" s="27" t="str">
-        <f>IF(_tag_month_all!H26="","",_tag_month_all!H26/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
+        <f>IF(_tag_month_all!H26="","",_tag_month_all!H26*100/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
         <v/>
       </c>
       <c r="M29" s="27" t="str">
-        <f>IF(_tag_month_all!I26="","",_tag_month_all!I26/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
+        <f>IF(_tag_month_all!I26="","",_tag_month_all!I26*100/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
         <v/>
       </c>
       <c r="N29" s="27" t="str">
-        <f>IF(_tag_month_all!J26="","",_tag_month_all!J26/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
+        <f>IF(_tag_month_all!J26="","",_tag_month_all!J26*100/SUM(_tag_month_all!$H26,_tag_month_all!$I26,_tag_month_all!$J26))</f>
         <v/>
       </c>
       <c r="O29" s="35" t="str">
@@ -3893,11 +3896,11 @@
         <v/>
       </c>
       <c r="Q29" s="27" t="str">
-        <f>IF(_ana_month_all!B27="","",_ana_month_all!B27*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R29" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S29" s="26" t="str">
@@ -3964,15 +3967,15 @@
         <v/>
       </c>
       <c r="L30" s="27" t="str">
-        <f>IF(_tag_month_all!H27="","",_tag_month_all!H27/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
+        <f>IF(_tag_month_all!H27="","",_tag_month_all!H27*100/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
         <v/>
       </c>
       <c r="M30" s="27" t="str">
-        <f>IF(_tag_month_all!I27="","",_tag_month_all!I27/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
+        <f>IF(_tag_month_all!I27="","",_tag_month_all!I27*100/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
         <v/>
       </c>
       <c r="N30" s="27" t="str">
-        <f>IF(_tag_month_all!J27="","",_tag_month_all!J27/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
+        <f>IF(_tag_month_all!J27="","",_tag_month_all!J27*100/SUM(_tag_month_all!$H27,_tag_month_all!$I27,_tag_month_all!$J27))</f>
         <v/>
       </c>
       <c r="O30" s="35" t="str">
@@ -3984,11 +3987,11 @@
         <v/>
       </c>
       <c r="Q30" s="27" t="str">
-        <f>IF(_ana_month_all!B28="","",_ana_month_all!B28*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R30" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S30" s="26" t="str">
@@ -4055,15 +4058,15 @@
         <v/>
       </c>
       <c r="L31" s="27" t="str">
-        <f>IF(_tag_month_all!H28="","",_tag_month_all!H28/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
+        <f>IF(_tag_month_all!H28="","",_tag_month_all!H28*100/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
         <v/>
       </c>
       <c r="M31" s="27" t="str">
-        <f>IF(_tag_month_all!I28="","",_tag_month_all!I28/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
+        <f>IF(_tag_month_all!I28="","",_tag_month_all!I28*100/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
         <v/>
       </c>
       <c r="N31" s="27" t="str">
-        <f>IF(_tag_month_all!J28="","",_tag_month_all!J28/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
+        <f>IF(_tag_month_all!J28="","",_tag_month_all!J28*100/SUM(_tag_month_all!$H28,_tag_month_all!$I28,_tag_month_all!$J28))</f>
         <v/>
       </c>
       <c r="O31" s="35" t="str">
@@ -4075,11 +4078,11 @@
         <v/>
       </c>
       <c r="Q31" s="27" t="str">
-        <f>IF(_ana_month_all!B29="","",_ana_month_all!B29*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R31" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S31" s="26" t="str">
@@ -4146,15 +4149,15 @@
         <v/>
       </c>
       <c r="L32" s="27" t="str">
-        <f>IF(_tag_month_all!H29="","",_tag_month_all!H29/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
+        <f>IF(_tag_month_all!H29="","",_tag_month_all!H29*100/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
         <v/>
       </c>
       <c r="M32" s="27" t="str">
-        <f>IF(_tag_month_all!I29="","",_tag_month_all!I29/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
+        <f>IF(_tag_month_all!I29="","",_tag_month_all!I29*100/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
         <v/>
       </c>
       <c r="N32" s="27" t="str">
-        <f>IF(_tag_month_all!J29="","",_tag_month_all!J29/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
+        <f>IF(_tag_month_all!J29="","",_tag_month_all!J29*100/SUM(_tag_month_all!$H29,_tag_month_all!$I29,_tag_month_all!$J29))</f>
         <v/>
       </c>
       <c r="O32" s="35" t="str">
@@ -4166,11 +4169,11 @@
         <v/>
       </c>
       <c r="Q32" s="27" t="str">
-        <f>IF(_ana_month_all!B30="","",_ana_month_all!B30*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R32" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S32" s="26" t="str">
@@ -4237,15 +4240,15 @@
         <v/>
       </c>
       <c r="L33" s="27" t="str">
-        <f>IF(_tag_month_all!H30="","",_tag_month_all!H30/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
+        <f>IF(_tag_month_all!H30="","",_tag_month_all!H30*100/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
         <v/>
       </c>
       <c r="M33" s="27" t="str">
-        <f>IF(_tag_month_all!I30="","",_tag_month_all!I30/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
+        <f>IF(_tag_month_all!I30="","",_tag_month_all!I30*100/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
         <v/>
       </c>
       <c r="N33" s="27" t="str">
-        <f>IF(_tag_month_all!J30="","",_tag_month_all!J30/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
+        <f>IF(_tag_month_all!J30="","",_tag_month_all!J30*100/SUM(_tag_month_all!$H30,_tag_month_all!$I30,_tag_month_all!$J30))</f>
         <v/>
       </c>
       <c r="O33" s="35" t="str">
@@ -4257,11 +4260,11 @@
         <v/>
       </c>
       <c r="Q33" s="27" t="str">
-        <f>IF(_ana_month_all!B31="","",_ana_month_all!B31*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R33" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S33" s="26" t="str">
@@ -4328,15 +4331,15 @@
         <v/>
       </c>
       <c r="L34" s="27" t="str">
-        <f>IF(_tag_month_all!H31="","",_tag_month_all!H31/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
+        <f>IF(_tag_month_all!H31="","",_tag_month_all!H31*100/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
         <v/>
       </c>
       <c r="M34" s="27" t="str">
-        <f>IF(_tag_month_all!I31="","",_tag_month_all!I31/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
+        <f>IF(_tag_month_all!I31="","",_tag_month_all!I31*100/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
         <v/>
       </c>
       <c r="N34" s="27" t="str">
-        <f>IF(_tag_month_all!J31="","",_tag_month_all!J31/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
+        <f>IF(_tag_month_all!J31="","",_tag_month_all!J31*100/SUM(_tag_month_all!$H31,_tag_month_all!$I31,_tag_month_all!$J31))</f>
         <v/>
       </c>
       <c r="O34" s="35" t="str">
@@ -4348,11 +4351,11 @@
         <v/>
       </c>
       <c r="Q34" s="27" t="str">
-        <f>IF(_ana_month_all!B32="","",_ana_month_all!B32*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R34" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S34" s="26" t="str">
@@ -4419,15 +4422,15 @@
         <v/>
       </c>
       <c r="L35" s="27" t="str">
-        <f>IF(_tag_month_all!H32="","",_tag_month_all!H32/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
+        <f>IF(_tag_month_all!H32="","",_tag_month_all!H32*100/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
         <v/>
       </c>
       <c r="M35" s="27" t="str">
-        <f>IF(_tag_month_all!I32="","",_tag_month_all!I32/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
+        <f>IF(_tag_month_all!I32="","",_tag_month_all!I32*100/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
         <v/>
       </c>
       <c r="N35" s="27" t="str">
-        <f>IF(_tag_month_all!J32="","",_tag_month_all!J32/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
+        <f>IF(_tag_month_all!J32="","",_tag_month_all!J32*100/SUM(_tag_month_all!$H32,_tag_month_all!$I32,_tag_month_all!$J32))</f>
         <v/>
       </c>
       <c r="O35" s="35" t="str">
@@ -4439,11 +4442,11 @@
         <v/>
       </c>
       <c r="Q35" s="27" t="str">
-        <f>IF(_ana_month_all!B33="","",_ana_month_all!B33*100)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R35" s="35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S35" s="26" t="str">
@@ -4478,35 +4481,35 @@
         <v/>
       </c>
       <c r="D36" s="29" t="str">
-        <f t="shared" ref="D36:F36" si="1">IFERROR(AVERAGE(D5:D35),"")</f>
+        <f t="shared" ref="D36:F36" si="2">IFERROR(AVERAGE(D5:D35),"")</f>
         <v/>
       </c>
       <c r="E36" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F36" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="29">
-        <f t="shared" ref="G36:U36" si="2">IFERROR(SUM(G5:G35),"")</f>
+        <f t="shared" ref="G36:U36" si="3">IFERROR(SUM(G5:G35),"")</f>
         <v>0</v>
       </c>
       <c r="H36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="30" t="str">
@@ -4514,39 +4517,39 @@
         <v/>
       </c>
       <c r="M36" s="30" t="str">
-        <f t="shared" ref="M36:O36" si="3">IFERROR(AVERAGE(M5:M35),"")</f>
+        <f t="shared" ref="M36:O36" si="4">IFERROR(AVERAGE(M5:M35),"")</f>
         <v/>
       </c>
       <c r="N36" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O36" s="36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P36" s="30" t="str">
+        <f t="shared" ref="P36:R36" si="5">IFERROR(AVERAGE(P5:P35),"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R36" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S36" s="29">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O36" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="T36" s="29">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P36" s="30" t="str">
-        <f t="shared" ref="P36:R36" si="4">IFERROR(AVERAGE(P5:P35),"")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R36" s="36" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S36" s="29">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T36" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="U36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V36" s="29">
@@ -4554,23 +4557,23 @@
         <v>0</v>
       </c>
       <c r="W36" s="29">
-        <f t="shared" ref="W36:AA36" si="5">IFERROR(MAX(W5:W35),"")</f>
+        <f t="shared" ref="W36:AA36" si="6">IFERROR(MAX(W5:W35),"")</f>
         <v>0</v>
       </c>
       <c r="X36" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y36" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z36" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA36" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4603,7 +4606,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4624,7 +4627,9 @@
       <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4638,7 +4643,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:K30"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4661,7 +4666,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -4679,7 +4684,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4733,19 +4738,29 @@
       <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="R1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="U1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
